--- a/Project2Data.xlsx
+++ b/Project2Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ctvnu\python\Project 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C604187A-12AC-48E2-A1AA-6C94BA85F8C1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F47408E-B673-4F65-BE01-A411B7F04AA5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="2" xr2:uid="{50B01484-4FBD-4010-B7E1-0C079EFD7A08}"/>
   </bookViews>
@@ -523,15 +523,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="8" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -547,6 +547,2494 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Graph Showing System Efficiency and Reservoir Cost versus Pump Volumetric</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Flow Rate</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>System Efficiency</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>('Data Collection'!$B$3,'Data Collection'!$B$15,'Data Collection'!$B$27,'Data Collection'!$B$39,'Data Collection'!$B$51,'Data Collection'!$B$63)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>28</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('Data Collection'!$E$4,'Data Collection'!$E$16,'Data Collection'!$E$28,'Data Collection'!$E$40,'Data Collection'!$E$52,'Data Collection'!$E$64)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.82723222227801996</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.83950716463282105</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.84605722294142804</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.85122280829114105</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.85166107711192296</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.85208491819017596</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7C97-4DB2-ACE0-590658F91979}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1956435648"/>
+        <c:axId val="1958879088"/>
+      </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Cost</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>('Data Collection'!$E$8,'Data Collection'!$E$20,'Data Collection'!$E$32,'Data Collection'!$E$44,'Data Collection'!$E$56,'Data Collection'!$E$68)</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0.00_);[Red]\("$"#,##0.00\)</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>664347.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>656067.25</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>650547.25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>645027.25</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>644475.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>643923.25</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7C97-4DB2-ACE0-590658F91979}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2002761808"/>
+        <c:axId val="1957398992"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1956435648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Pump Volumetric Flow Rate</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1958879088"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1958879088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>System Efficiency</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1956435648"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1957398992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Reservoir Cost</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2002761808"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="2002761808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1957398992"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>Graph Showing System Efficiency and Reservoir Cost versus Pipe</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-US" baseline="0"/>
+              <a:t> Diameter</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>System Efficiency</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>('Data Collection'!$B$100,'Data Collection'!$B$112,'Data Collection'!$B$124)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('Data Collection'!$E$100,'Data Collection'!$E$112,'Data Collection'!$E$124)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>0.83481267725300701</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.84728207369102704</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.83980609429459896</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E8B3-4BB2-AA19-ED58171856CC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="1956435648"/>
+        <c:axId val="1958879088"/>
+      </c:lineChart>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Cost</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>('Data Collection'!$B$100,'Data Collection'!$B$112,'Data Collection'!$B$124)</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.75</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>('Data Collection'!$E$104,'Data Collection'!$E$116,'Data Collection'!$E$128)</c:f>
+              <c:numCache>
+                <c:formatCode>"$"#,##0.00_);[Red]\("$"#,##0.00\)</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>641003.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>596386.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>612641</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E8B3-4BB2-AA19-ED58171856CC}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="2002761808"/>
+        <c:axId val="1957398992"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="1956435648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Pipe Diameter</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1958879088"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1958879088"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>System Efficiency</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1956435648"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="1957398992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="r"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="65000"/>
+                        <a:lumOff val="35000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="en-US"/>
+                  <a:t>Reservoir Cost</a:t>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="-5400000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="1000" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="65000"/>
+                      <a:lumOff val="35000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+        </c:title>
+        <c:numFmt formatCode="&quot;$&quot;#,##0.00_);[Red]\(&quot;$&quot;#,##0.00\)" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2002761808"/>
+        <c:crosses val="max"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:catAx>
+        <c:axId val="2002761808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="1"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="1957398992"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>609599</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>4761</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>142874</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2675C18E-0033-4833-A9DC-E20E3F43D524}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2A8CBCC0-370C-45D8-A30C-9A2B052E5AFC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1576,12 +4064,12 @@
       </c>
     </row>
     <row r="16" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="N16" s="9" t="s">
+      <c r="N16" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="O16" s="9"/>
-      <c r="P16" s="9"/>
-      <c r="Q16" s="9"/>
+      <c r="O16" s="15"/>
+      <c r="P16" s="15"/>
+      <c r="Q16" s="15"/>
       <c r="R16" s="4">
         <f>SUM(R2:R15)</f>
         <v>664347.25</v>
@@ -1993,12 +4481,12 @@
       </c>
     </row>
     <row r="33" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="N33" s="9" t="s">
+      <c r="N33" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="O33" s="9"/>
-      <c r="P33" s="9"/>
-      <c r="Q33" s="9"/>
+      <c r="O33" s="15"/>
+      <c r="P33" s="15"/>
+      <c r="Q33" s="15"/>
       <c r="R33" s="4">
         <f>SUM(R19:R32)</f>
         <v>852742.5</v>
@@ -2417,12 +4905,12 @@
       </c>
     </row>
     <row r="51" spans="14:18" x14ac:dyDescent="0.25">
-      <c r="N51" s="9" t="s">
+      <c r="N51" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="O51" s="9"/>
-      <c r="P51" s="9"/>
-      <c r="Q51" s="9"/>
+      <c r="O51" s="15"/>
+      <c r="P51" s="15"/>
+      <c r="Q51" s="15"/>
       <c r="R51" s="4">
         <f>SUM(R37:R50)</f>
         <v>1035899.3999999999</v>
@@ -2443,8 +4931,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67142384-E9E7-4B82-8172-A989261DEB27}">
   <dimension ref="A1:G444"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H138" sqref="H138"/>
+    <sheetView tabSelected="1" topLeftCell="A104" workbookViewId="0">
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2555,12 +5043,12 @@
       <c r="D8" t="s">
         <v>116</v>
       </c>
-      <c r="E8" s="10">
+      <c r="E8" s="9">
         <v>664347.25</v>
       </c>
     </row>
     <row r="9" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E9" s="10"/>
+      <c r="E9" s="9"/>
       <c r="F9" s="3" t="s">
         <v>121</v>
       </c>
@@ -2570,21 +5058,21 @@
       </c>
     </row>
     <row r="10" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E10" s="10"/>
+      <c r="E10" s="9"/>
       <c r="F10" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="G10" s="10">
+      <c r="G10" s="9">
         <f>E20-E8</f>
         <v>-8280</v>
       </c>
     </row>
     <row r="11" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E11" s="10"/>
+      <c r="E11" s="9"/>
       <c r="F11" t="s">
         <v>123</v>
       </c>
-      <c r="G11" s="11">
+      <c r="G11" s="10">
         <f>E18-E6</f>
         <v>1.5134988669205098</v>
       </c>
@@ -2704,12 +5192,12 @@
       <c r="D20" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="E20" s="10">
+      <c r="E20" s="9">
         <v>656067.25</v>
       </c>
     </row>
     <row r="21" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E21" s="10"/>
+      <c r="E21" s="9"/>
       <c r="F21" s="3" t="s">
         <v>121</v>
       </c>
@@ -2719,21 +5207,21 @@
       </c>
     </row>
     <row r="22" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E22" s="10"/>
+      <c r="E22" s="9"/>
       <c r="F22" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="G22" s="10">
+      <c r="G22" s="9">
         <f>E32-E20</f>
         <v>-5520</v>
       </c>
     </row>
     <row r="23" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E23" s="10"/>
+      <c r="E23" s="9"/>
       <c r="F23" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="G23" s="11">
+      <c r="G23" s="10">
         <f>E30-E18</f>
         <v>1.6396237724972194</v>
       </c>
@@ -2856,7 +5344,7 @@
       <c r="D32" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="E32" s="10">
+      <c r="E32" s="9">
         <v>650547.25</v>
       </c>
     </row>
@@ -2873,7 +5361,7 @@
       <c r="F34" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="G34" s="10">
+      <c r="G34" s="9">
         <f>E44-E32</f>
         <v>-5520</v>
       </c>
@@ -2882,7 +5370,7 @@
       <c r="F35" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="G35" s="11">
+      <c r="G35" s="10">
         <f>E42-E30</f>
         <v>2.7327062874953008</v>
       </c>
@@ -3002,7 +5490,7 @@
       <c r="D44" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="E44" s="10">
+      <c r="E44" s="9">
         <v>645027.25</v>
       </c>
     </row>
@@ -3029,7 +5517,7 @@
       <c r="F46" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="G46" s="10">
+      <c r="G46" s="9">
         <f>E56-E44</f>
         <v>-552</v>
       </c>
@@ -3043,7 +5531,7 @@
       <c r="F47" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="G47" s="11">
+      <c r="G47" s="10">
         <f>E54-E42</f>
         <v>0.37692500517179894</v>
       </c>
@@ -3186,7 +5674,7 @@
       <c r="D56" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="E56" s="10">
+      <c r="E56" s="9">
         <v>644475.25</v>
       </c>
       <c r="F56" s="3"/>
@@ -3215,7 +5703,7 @@
       <c r="F58" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="G58" s="10">
+      <c r="G58" s="9">
         <f>E68-E56</f>
         <v>-552</v>
       </c>
@@ -3229,7 +5717,7 @@
       <c r="F59" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="G59" s="11">
+      <c r="G59" s="10">
         <f>E66-E54</f>
         <v>0.40384821982690156</v>
       </c>
@@ -3372,7 +5860,7 @@
       <c r="D68" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="E68" s="10">
+      <c r="E68" s="9">
         <v>643923.25</v>
       </c>
       <c r="F68" s="3"/>
@@ -3401,7 +5889,7 @@
       <c r="F70" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="G70" s="10">
+      <c r="G70" s="9">
         <f>E80-E68</f>
         <v>-1990</v>
       </c>
@@ -3415,7 +5903,7 @@
       <c r="F71" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="G71" s="11">
+      <c r="G71" s="10">
         <f>E78-E66</f>
         <v>-1.202602686890053E-2</v>
       </c>
@@ -3435,130 +5923,130 @@
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A73" s="14" t="s">
+      <c r="A73" s="13" t="s">
         <v>128</v>
       </c>
-      <c r="B73" s="14"/>
-      <c r="C73" s="14"/>
-      <c r="D73" s="14"/>
-      <c r="E73" s="14"/>
+      <c r="B73" s="13"/>
+      <c r="C73" s="13"/>
+      <c r="D73" s="13"/>
+      <c r="E73" s="13"/>
       <c r="F73" s="3"/>
       <c r="G73" s="3"/>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A74" s="14" t="s">
+      <c r="A74" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="B74" s="14">
+      <c r="B74" s="13">
         <v>0.92</v>
       </c>
-      <c r="C74" s="14"/>
-      <c r="D74" s="14" t="s">
+      <c r="C74" s="13"/>
+      <c r="D74" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="E74" s="14">
+      <c r="E74" s="13">
         <v>1179316892.68961</v>
       </c>
       <c r="F74" s="3"/>
       <c r="G74" s="3"/>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A75" s="14" t="s">
+      <c r="A75" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="B75" s="14">
+      <c r="B75" s="13">
         <v>28</v>
       </c>
-      <c r="C75" s="14"/>
-      <c r="D75" s="14" t="s">
+      <c r="C75" s="13"/>
+      <c r="D75" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="E75" s="14">
+      <c r="E75" s="13">
         <v>140.686421889402</v>
       </c>
       <c r="F75" s="3"/>
       <c r="G75" s="3"/>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A76" s="14" t="s">
+      <c r="A76" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="B76" s="14">
+      <c r="B76" s="13">
         <v>3</v>
       </c>
-      <c r="C76" s="14"/>
-      <c r="D76" s="14" t="s">
+      <c r="C76" s="13"/>
+      <c r="D76" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="E76" s="14">
+      <c r="E76" s="13">
         <v>0.85296077893242095</v>
       </c>
       <c r="F76" s="3"/>
       <c r="G76" s="3"/>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A77" s="14" t="s">
+      <c r="A77" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="B77" s="14">
+      <c r="B77" s="13">
         <v>2E-3</v>
       </c>
-      <c r="C77" s="14"/>
-      <c r="D77" s="14" t="s">
+      <c r="C77" s="13"/>
+      <c r="D77" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="E77" s="14">
+      <c r="E77" s="13">
         <v>58612.161732866101</v>
       </c>
       <c r="F77" s="3"/>
       <c r="G77" s="3"/>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A78" s="14" t="s">
+      <c r="A78" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="B78" s="14">
+      <c r="B78" s="13">
         <v>20</v>
       </c>
-      <c r="C78" s="14"/>
-      <c r="D78" s="14" t="s">
+      <c r="C78" s="13"/>
+      <c r="D78" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="E78" s="14">
+      <c r="E78" s="13">
         <v>11.6995723481112</v>
       </c>
       <c r="F78" s="3"/>
       <c r="G78" s="3"/>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A79" s="14" t="s">
+      <c r="A79" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="B79" s="14">
+      <c r="B79" s="13">
         <v>0.94</v>
       </c>
-      <c r="C79" s="14"/>
-      <c r="D79" s="14" t="s">
+      <c r="C79" s="13"/>
+      <c r="D79" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="E79" s="14">
+      <c r="E79" s="13">
         <v>11.6995723481112</v>
       </c>
       <c r="F79" s="3"/>
       <c r="G79" s="3"/>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A80" s="14" t="s">
+      <c r="A80" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="B80" s="14">
+      <c r="B80" s="13">
         <v>28</v>
       </c>
-      <c r="C80" s="14"/>
-      <c r="D80" s="14" t="s">
+      <c r="C80" s="13"/>
+      <c r="D80" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="E80" s="15">
+      <c r="E80" s="14">
         <v>641933.25</v>
       </c>
       <c r="F80" s="3"/>
@@ -3587,7 +6075,7 @@
       <c r="F82" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="G82" s="10">
+      <c r="G82" s="9">
         <f>E92-E80</f>
         <v>-2576</v>
       </c>
@@ -3601,7 +6089,7 @@
       <c r="F83" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="G83" s="11">
+      <c r="G83" s="10">
         <f>E90-E78</f>
         <v>0</v>
       </c>
@@ -3744,7 +6232,7 @@
       <c r="D92" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="E92" s="10">
+      <c r="E92" s="9">
         <v>639357.25</v>
       </c>
       <c r="F92" s="3"/>
@@ -3773,7 +6261,7 @@
       <c r="F94" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="G94" s="10">
+      <c r="G94" s="9">
         <f>E104-E92</f>
         <v>1646.5</v>
       </c>
@@ -3787,7 +6275,7 @@
       <c r="F95" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="G95" s="11">
+      <c r="G95" s="10">
         <f>E102-E90</f>
         <v>0.25433852930670042</v>
       </c>
@@ -3930,7 +6418,7 @@
       <c r="D104" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="E104" s="10">
+      <c r="E104" s="9">
         <v>641003.75</v>
       </c>
       <c r="F104" s="3"/>
@@ -3959,7 +6447,7 @@
       <c r="F106" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="G106" s="10">
+      <c r="G106" s="9">
         <f>E116-E80</f>
         <v>-45546.75</v>
       </c>
@@ -3973,7 +6461,7 @@
       <c r="F107" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="G107" s="11">
+      <c r="G107" s="10">
         <f t="shared" ref="G107:G108" si="0">E114-E102</f>
         <v>-0.62372424251520009</v>
       </c>
@@ -3993,130 +6481,130 @@
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A109" s="12" t="s">
+      <c r="A109" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="B109" s="12"/>
-      <c r="C109" s="12"/>
-      <c r="D109" s="12"/>
-      <c r="E109" s="12"/>
+      <c r="B109" s="11"/>
+      <c r="C109" s="11"/>
+      <c r="D109" s="11"/>
+      <c r="E109" s="11"/>
       <c r="F109" s="3"/>
       <c r="G109" s="3"/>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A110" s="12" t="s">
+      <c r="A110" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="B110" s="12">
+      <c r="B110" s="11">
         <v>0.92</v>
       </c>
-      <c r="C110" s="12"/>
-      <c r="D110" s="12" t="s">
+      <c r="C110" s="11"/>
+      <c r="D110" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="E110" s="12">
+      <c r="E110" s="11">
         <v>1182871484.68384</v>
       </c>
       <c r="F110" s="3"/>
       <c r="G110" s="3"/>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A111" s="12" t="s">
+      <c r="A111" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="B111" s="12">
+      <c r="B111" s="11">
         <v>28</v>
       </c>
-      <c r="C111" s="12"/>
-      <c r="D111" s="12" t="s">
+      <c r="C111" s="11"/>
+      <c r="D111" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="E111" s="12">
+      <c r="E111" s="11">
         <v>141.52870564455699</v>
       </c>
       <c r="F111" s="3"/>
       <c r="G111" s="3"/>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A112" s="12" t="s">
+      <c r="A112" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="B112" s="12">
+      <c r="B112" s="11">
         <v>2.75</v>
       </c>
-      <c r="C112" s="12"/>
-      <c r="D112" s="12" t="s">
+      <c r="C112" s="11"/>
+      <c r="D112" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="E112" s="12">
+      <c r="E112" s="11">
         <v>0.84728207369102704</v>
       </c>
       <c r="F112" s="3"/>
       <c r="G112" s="3"/>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A113" s="12" t="s">
+      <c r="A113" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="B113" s="12">
+      <c r="B113" s="11">
         <v>2E-3</v>
       </c>
-      <c r="C113" s="12"/>
-      <c r="D113" s="12" t="s">
+      <c r="C113" s="11"/>
+      <c r="D113" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="E113" s="12">
+      <c r="E113" s="11">
         <v>58641.144479167197</v>
       </c>
       <c r="F113" s="3"/>
       <c r="G113" s="3"/>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A114" s="12" t="s">
+      <c r="A114" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="B114" s="12">
+      <c r="B114" s="11">
         <v>20</v>
       </c>
-      <c r="C114" s="12"/>
-      <c r="D114" s="12" t="s">
+      <c r="C114" s="11"/>
+      <c r="D114" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="E114" s="12">
+      <c r="E114" s="11">
         <v>11.330186634902701</v>
       </c>
       <c r="F114" s="3"/>
       <c r="G114" s="3"/>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A115" s="12" t="s">
+      <c r="A115" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="B115" s="12">
+      <c r="B115" s="11">
         <v>0.94</v>
       </c>
-      <c r="C115" s="12"/>
-      <c r="D115" s="12" t="s">
+      <c r="C115" s="11"/>
+      <c r="D115" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="E115" s="12">
+      <c r="E115" s="11">
         <v>11.734836157577799</v>
       </c>
       <c r="F115" s="3"/>
       <c r="G115" s="3"/>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A116" s="12" t="s">
+      <c r="A116" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="B116" s="12">
+      <c r="B116" s="11">
         <v>28</v>
       </c>
-      <c r="C116" s="12"/>
-      <c r="D116" s="12" t="s">
+      <c r="C116" s="11"/>
+      <c r="D116" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="E116" s="13">
+      <c r="E116" s="12">
         <v>596386.5</v>
       </c>
       <c r="F116" s="3"/>
@@ -4145,7 +6633,7 @@
       <c r="F118" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="G118" s="10">
+      <c r="G118" s="9">
         <f t="shared" ref="G118" si="2">E128-E116</f>
         <v>16254.5</v>
       </c>
@@ -4159,7 +6647,7 @@
       <c r="F119" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="G119" s="11">
+      <c r="G119" s="10">
         <f t="shared" ref="G119:G120" si="3">E126-E114</f>
         <v>0.46164804043080032</v>
       </c>
@@ -4302,7 +6790,7 @@
       <c r="D128" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="E128" s="10">
+      <c r="E128" s="9">
         <v>612641</v>
       </c>
       <c r="F128" s="3"/>
@@ -4331,7 +6819,7 @@
       <c r="F130" s="3" t="s">
         <v>122</v>
       </c>
-      <c r="G130" s="10">
+      <c r="G130" s="9">
         <f>E140-E116</f>
         <v>-9392.3299999999581</v>
       </c>
@@ -4345,7 +6833,7 @@
       <c r="F131" s="3" t="s">
         <v>123</v>
       </c>
-      <c r="G131" s="11">
+      <c r="G131" s="10">
         <f t="shared" ref="G131:G132" si="4">E138-E126</f>
         <v>9.3044381565999146E-2</v>
       </c>
@@ -4488,7 +6976,7 @@
       <c r="D140" s="3" t="s">
         <v>116</v>
       </c>
-      <c r="E140" s="10">
+      <c r="E140" s="9">
         <v>586994.17000000004</v>
       </c>
       <c r="F140" s="3"/>
@@ -4508,7 +6996,7 @@
       <c r="D418" s="3"/>
       <c r="E418" s="3"/>
       <c r="F418" s="3"/>
-      <c r="G418" s="10"/>
+      <c r="G418" s="9"/>
     </row>
     <row r="419" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B419" s="3"/>
@@ -4516,7 +7004,7 @@
       <c r="D419" s="3"/>
       <c r="E419" s="3"/>
       <c r="F419" s="3"/>
-      <c r="G419" s="11"/>
+      <c r="G419" s="10"/>
     </row>
     <row r="420" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B420" s="3"/>
@@ -4586,7 +7074,7 @@
       <c r="B428" s="3"/>
       <c r="C428" s="3"/>
       <c r="D428" s="3"/>
-      <c r="E428" s="10"/>
+      <c r="E428" s="9"/>
       <c r="F428" s="3"/>
       <c r="G428" s="3"/>
     </row>
@@ -4604,7 +7092,7 @@
       <c r="D430" s="3"/>
       <c r="E430" s="3"/>
       <c r="F430" s="3"/>
-      <c r="G430" s="10"/>
+      <c r="G430" s="9"/>
     </row>
     <row r="431" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B431" s="3"/>
@@ -4612,7 +7100,7 @@
       <c r="D431" s="3"/>
       <c r="E431" s="3"/>
       <c r="F431" s="3"/>
-      <c r="G431" s="11"/>
+      <c r="G431" s="10"/>
     </row>
     <row r="432" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B432" s="3"/>
@@ -4682,7 +7170,7 @@
       <c r="B440" s="3"/>
       <c r="C440" s="3"/>
       <c r="D440" s="3"/>
-      <c r="E440" s="10"/>
+      <c r="E440" s="9"/>
       <c r="F440" s="3"/>
       <c r="G440" s="3"/>
     </row>
@@ -4702,7 +7190,7 @@
       <c r="D442" s="3"/>
       <c r="E442" s="3"/>
       <c r="F442" s="3"/>
-      <c r="G442" s="10"/>
+      <c r="G442" s="9"/>
     </row>
     <row r="443" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A443" s="3"/>
@@ -4711,7 +7199,7 @@
       <c r="D443" s="3"/>
       <c r="E443" s="3"/>
       <c r="F443" s="3"/>
-      <c r="G443" s="11"/>
+      <c r="G443" s="10"/>
     </row>
     <row r="444" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A444" s="3"/>
@@ -4725,6 +7213,7 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -4972,12 +7461,12 @@
       </c>
     </row>
     <row r="16" spans="16:20" x14ac:dyDescent="0.25">
-      <c r="P16" s="9" t="s">
+      <c r="P16" s="15" t="s">
         <v>102</v>
       </c>
-      <c r="Q16" s="9"/>
-      <c r="R16" s="9"/>
-      <c r="S16" s="9"/>
+      <c r="Q16" s="15"/>
+      <c r="R16" s="15"/>
+      <c r="S16" s="15"/>
       <c r="T16" s="4">
         <f>SUM(T2:T15)</f>
         <v>680051.25</v>

--- a/Project2Data.xlsx
+++ b/Project2Data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ctvnu\python\Project 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9F47408E-B673-4F65-BE01-A411B7F04AA5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB94B647-DE1E-4005-968F-15C2527E25D7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="1" activeTab="2" xr2:uid="{50B01484-4FBD-4010-B7E1-0C079EFD7A08}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" activeTab="2" xr2:uid="{50B01484-4FBD-4010-B7E1-0C079EFD7A08}"/>
   </bookViews>
   <sheets>
     <sheet name="Zone Details" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="479" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="480" uniqueCount="135">
   <si>
     <t>Usable Space</t>
   </si>
@@ -436,6 +436,9 @@
   </si>
   <si>
     <t>Test 12</t>
+  </si>
+  <si>
+    <t>Cost v. SysEff Score</t>
   </si>
 </sst>
 </file>
@@ -511,7 +514,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -529,9 +532,11 @@
     <xf numFmtId="8" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="8" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1113,6 +1118,7 @@
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
         <c:crossAx val="1957398992"/>
+        <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
@@ -3635,8 +3641,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B44798B-7226-4F2E-AA82-DE9A2C890910}">
   <dimension ref="A1:W51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="K40" sqref="K40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4064,12 +4070,12 @@
       </c>
     </row>
     <row r="16" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="N16" s="15" t="s">
+      <c r="N16" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="O16" s="15"/>
-      <c r="P16" s="15"/>
-      <c r="Q16" s="15"/>
+      <c r="O16" s="16"/>
+      <c r="P16" s="16"/>
+      <c r="Q16" s="16"/>
       <c r="R16" s="4">
         <f>SUM(R2:R15)</f>
         <v>664347.25</v>
@@ -4481,12 +4487,12 @@
       </c>
     </row>
     <row r="33" spans="1:23" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="N33" s="15" t="s">
+      <c r="N33" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="O33" s="15"/>
-      <c r="P33" s="15"/>
-      <c r="Q33" s="15"/>
+      <c r="O33" s="16"/>
+      <c r="P33" s="16"/>
+      <c r="Q33" s="16"/>
       <c r="R33" s="4">
         <f>SUM(R19:R32)</f>
         <v>852742.5</v>
@@ -4693,7 +4699,7 @@
         <v>37</v>
       </c>
       <c r="H41" s="1">
-        <v>100000</v>
+        <v>150000</v>
       </c>
       <c r="N41" s="5" t="s">
         <v>93</v>
@@ -4905,12 +4911,12 @@
       </c>
     </row>
     <row r="51" spans="14:18" x14ac:dyDescent="0.25">
-      <c r="N51" s="15" t="s">
+      <c r="N51" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="O51" s="15"/>
-      <c r="P51" s="15"/>
-      <c r="Q51" s="15"/>
+      <c r="O51" s="16"/>
+      <c r="P51" s="16"/>
+      <c r="Q51" s="16"/>
       <c r="R51" s="4">
         <f>SUM(R37:R50)</f>
         <v>1035899.3999999999</v>
@@ -4929,27 +4935,27 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67142384-E9E7-4B82-8172-A989261DEB27}">
-  <dimension ref="A1:G444"/>
+  <dimension ref="A1:H444"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A104" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+    <sheetView tabSelected="1" topLeftCell="A116" workbookViewId="0">
+      <selection activeCell="D146" sqref="D146"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="19.7109375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>56</v>
       </c>
@@ -4963,7 +4969,7 @@
         <v>1180529116.1979899</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>57</v>
       </c>
@@ -4977,7 +4983,7 @@
         <v>145.06204759474301</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>58</v>
       </c>
@@ -4991,7 +4997,7 @@
         <v>0.82723222227801996</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>60</v>
       </c>
@@ -5005,7 +5011,7 @@
         <v>58620.024932305299</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>61</v>
       </c>
@@ -5019,7 +5025,7 @@
         <v>5.0449962230683703</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>65</v>
       </c>
@@ -5033,7 +5039,7 @@
         <v>10.9308251499814</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>114</v>
       </c>
@@ -5047,8 +5053,11 @@
         <v>664347.25</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E9" s="9"/>
+    <row r="9" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="E9" s="10">
+        <f>(E8/(E4*100))/12500</f>
+        <v>0.64247714932624866</v>
+      </c>
       <c r="F9" s="3" t="s">
         <v>121</v>
       </c>
@@ -5056,8 +5065,9 @@
         <f>(E16-E4)*100</f>
         <v>1.2274942354801088</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="H9" s="9"/>
+    </row>
+    <row r="10" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E10" s="9"/>
       <c r="F10" s="3" t="s">
         <v>122</v>
@@ -5067,7 +5077,7 @@
         <v>-8280</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="E11" s="9"/>
       <c r="F11" t="s">
         <v>123</v>
@@ -5077,7 +5087,7 @@
         <v>1.5134988669205098</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="F12" t="s">
         <v>124</v>
       </c>
@@ -5086,12 +5096,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>119</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>56</v>
       </c>
@@ -5106,7 +5116,7 @@
         <v>1180529116.1979899</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>57</v>
       </c>
@@ -5121,7 +5131,7 @@
         <v>142.941007599958</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>58</v>
       </c>
@@ -5197,7 +5207,10 @@
       </c>
     </row>
     <row r="21" spans="1:7" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="E21" s="9"/>
+      <c r="E21" s="10">
+        <f>(E20/(E16*100))/12500</f>
+        <v>0.62519275845556077</v>
+      </c>
       <c r="F21" s="3" t="s">
         <v>121</v>
       </c>
@@ -5349,6 +5362,10 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E33" s="10">
+        <f>(E32/(E28*100))/12500</f>
+        <v>0.61513309725154319</v>
+      </c>
       <c r="F33" s="3" t="s">
         <v>121</v>
       </c>
@@ -5499,7 +5516,10 @@
       <c r="B45" s="3"/>
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
+      <c r="E45" s="10">
+        <f>(E44/(E40*100))/12500</f>
+        <v>0.60621237468475664</v>
+      </c>
       <c r="F45" s="3" t="s">
         <v>121</v>
       </c>
@@ -5685,7 +5705,10 @@
       <c r="B57" s="3"/>
       <c r="C57" s="3"/>
       <c r="D57" s="3"/>
-      <c r="E57" s="3"/>
+      <c r="E57" s="10">
+        <f>(E56/(E52*100))/12500</f>
+        <v>0.60538189880461546</v>
+      </c>
       <c r="F57" s="3" t="s">
         <v>121</v>
       </c>
@@ -5871,7 +5894,10 @@
       <c r="B69" s="3"/>
       <c r="C69" s="3"/>
       <c r="D69" s="3"/>
-      <c r="E69" s="3"/>
+      <c r="E69" s="10">
+        <f>(E68/(E64*100))/12500</f>
+        <v>0.60456251366841673</v>
+      </c>
       <c r="F69" s="3" t="s">
         <v>121</v>
       </c>
@@ -6057,7 +6083,10 @@
       <c r="B81" s="3"/>
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
-      <c r="E81" s="3"/>
+      <c r="E81" s="10">
+        <f>(E80/(E76*100))/12500</f>
+        <v>0.60207528022890211</v>
+      </c>
       <c r="F81" s="3" t="s">
         <v>121</v>
       </c>
@@ -6243,7 +6272,10 @@
       <c r="B93" s="3"/>
       <c r="C93" s="3"/>
       <c r="D93" s="3"/>
-      <c r="E93" s="3"/>
+      <c r="E93" s="10">
+        <f>(E92/(E88*100))/12500</f>
+        <v>0.61987245772752353</v>
+      </c>
       <c r="F93" s="3" t="s">
         <v>121</v>
       </c>
@@ -6429,7 +6461,10 @@
       <c r="B105" s="3"/>
       <c r="C105" s="3"/>
       <c r="D105" s="3"/>
-      <c r="E105" s="3"/>
+      <c r="E105" s="10">
+        <f>(E104/(E100*100))/12500</f>
+        <v>0.6142731345281004</v>
+      </c>
       <c r="F105" s="3" t="s">
         <v>121</v>
       </c>
@@ -6481,130 +6516,130 @@
       </c>
     </row>
     <row r="109" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A109" s="11" t="s">
+      <c r="A109" s="13" t="s">
         <v>131</v>
       </c>
-      <c r="B109" s="11"/>
-      <c r="C109" s="11"/>
-      <c r="D109" s="11"/>
-      <c r="E109" s="11"/>
+      <c r="B109" s="13"/>
+      <c r="C109" s="13"/>
+      <c r="D109" s="13"/>
+      <c r="E109" s="13"/>
       <c r="F109" s="3"/>
       <c r="G109" s="3"/>
     </row>
     <row r="110" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A110" s="11" t="s">
+      <c r="A110" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="B110" s="11">
+      <c r="B110" s="13">
         <v>0.92</v>
       </c>
-      <c r="C110" s="11"/>
-      <c r="D110" s="11" t="s">
+      <c r="C110" s="13"/>
+      <c r="D110" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="E110" s="11">
+      <c r="E110" s="13">
         <v>1182871484.68384</v>
       </c>
       <c r="F110" s="3"/>
       <c r="G110" s="3"/>
     </row>
     <row r="111" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A111" s="11" t="s">
+      <c r="A111" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="B111" s="11">
+      <c r="B111" s="13">
         <v>28</v>
       </c>
-      <c r="C111" s="11"/>
-      <c r="D111" s="11" t="s">
+      <c r="C111" s="13"/>
+      <c r="D111" s="13" t="s">
         <v>115</v>
       </c>
-      <c r="E111" s="11">
+      <c r="E111" s="13">
         <v>141.52870564455699</v>
       </c>
       <c r="F111" s="3"/>
       <c r="G111" s="3"/>
     </row>
     <row r="112" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A112" s="11" t="s">
+      <c r="A112" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="B112" s="11">
+      <c r="B112" s="13">
         <v>2.75</v>
       </c>
-      <c r="C112" s="11"/>
-      <c r="D112" s="11" t="s">
+      <c r="C112" s="13"/>
+      <c r="D112" s="13" t="s">
         <v>117</v>
       </c>
-      <c r="E112" s="11">
+      <c r="E112" s="13">
         <v>0.84728207369102704</v>
       </c>
       <c r="F112" s="3"/>
       <c r="G112" s="3"/>
     </row>
     <row r="113" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A113" s="11" t="s">
+      <c r="A113" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="B113" s="11">
+      <c r="B113" s="13">
         <v>2E-3</v>
       </c>
-      <c r="C113" s="11"/>
-      <c r="D113" s="11" t="s">
+      <c r="C113" s="13"/>
+      <c r="D113" s="13" t="s">
         <v>84</v>
       </c>
-      <c r="E113" s="11">
+      <c r="E113" s="13">
         <v>58641.144479167197</v>
       </c>
       <c r="F113" s="3"/>
       <c r="G113" s="3"/>
     </row>
     <row r="114" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A114" s="11" t="s">
+      <c r="A114" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="B114" s="11">
+      <c r="B114" s="13">
         <v>20</v>
       </c>
-      <c r="C114" s="11"/>
-      <c r="D114" s="11" t="s">
+      <c r="C114" s="13"/>
+      <c r="D114" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="E114" s="11">
+      <c r="E114" s="13">
         <v>11.330186634902701</v>
       </c>
       <c r="F114" s="3"/>
       <c r="G114" s="3"/>
     </row>
     <row r="115" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A115" s="11" t="s">
+      <c r="A115" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="B115" s="11">
+      <c r="B115" s="13">
         <v>0.94</v>
       </c>
-      <c r="C115" s="11"/>
-      <c r="D115" s="11" t="s">
+      <c r="C115" s="13"/>
+      <c r="D115" s="13" t="s">
         <v>86</v>
       </c>
-      <c r="E115" s="11">
+      <c r="E115" s="13">
         <v>11.734836157577799</v>
       </c>
       <c r="F115" s="3"/>
       <c r="G115" s="3"/>
     </row>
     <row r="116" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A116" s="11" t="s">
+      <c r="A116" s="13" t="s">
         <v>114</v>
       </c>
-      <c r="B116" s="11">
+      <c r="B116" s="13">
         <v>28</v>
       </c>
-      <c r="C116" s="11"/>
-      <c r="D116" s="11" t="s">
+      <c r="C116" s="13"/>
+      <c r="D116" s="13" t="s">
         <v>116</v>
       </c>
-      <c r="E116" s="12">
+      <c r="E116" s="14">
         <v>596386.5</v>
       </c>
       <c r="F116" s="3"/>
@@ -6615,7 +6650,10 @@
       <c r="B117" s="3"/>
       <c r="C117" s="3"/>
       <c r="D117" s="3"/>
-      <c r="E117" s="3"/>
+      <c r="E117" s="10">
+        <f>(E116/(E112*100))/12500</f>
+        <v>0.56310550501978918</v>
+      </c>
       <c r="F117" s="3" t="s">
         <v>121</v>
       </c>
@@ -6801,7 +6839,10 @@
       <c r="B129" s="3"/>
       <c r="C129" s="3"/>
       <c r="D129" s="3"/>
-      <c r="E129" s="3"/>
+      <c r="E129" s="10">
+        <f>(E128/(E124*100))/12500</f>
+        <v>0.58360233788452531</v>
+      </c>
       <c r="F129" s="3" t="s">
         <v>121</v>
       </c>
@@ -6853,134 +6894,266 @@
       </c>
     </row>
     <row r="133" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A133" s="3" t="s">
+      <c r="A133" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="B133" s="3"/>
-      <c r="C133" s="3"/>
-      <c r="D133" s="3"/>
-      <c r="E133" s="3"/>
+      <c r="B133" s="11"/>
+      <c r="C133" s="11"/>
+      <c r="D133" s="11"/>
+      <c r="E133" s="11"/>
       <c r="F133" s="3"/>
       <c r="G133" s="3"/>
     </row>
     <row r="134" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A134" s="3" t="s">
+      <c r="A134" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="B134" s="3">
+      <c r="B134" s="11">
         <v>0.92</v>
       </c>
-      <c r="C134" s="3"/>
-      <c r="D134" s="3" t="s">
+      <c r="C134" s="11"/>
+      <c r="D134" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="E134" s="3">
+      <c r="E134" s="11">
         <v>1197995808.9354701</v>
       </c>
       <c r="F134" s="3"/>
       <c r="G134" s="3"/>
     </row>
     <row r="135" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A135" s="3" t="s">
+      <c r="A135" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="B135" s="3">
+      <c r="B135" s="11">
         <v>28</v>
       </c>
-      <c r="C135" s="3"/>
-      <c r="D135" s="3" t="s">
+      <c r="C135" s="11"/>
+      <c r="D135" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="E135" s="3">
+      <c r="E135" s="11">
         <v>141.564101413587</v>
       </c>
       <c r="F135" s="3"/>
       <c r="G135" s="3"/>
     </row>
     <row r="136" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A136" s="3" t="s">
+      <c r="A136" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="B136" s="3">
+      <c r="B136" s="11">
         <v>2.75</v>
       </c>
-      <c r="C136" s="3"/>
-      <c r="D136" s="3" t="s">
+      <c r="C136" s="11"/>
+      <c r="D136" s="11" t="s">
         <v>117</v>
       </c>
-      <c r="E136" s="3">
+      <c r="E136" s="11">
         <v>0.84767252998282105</v>
       </c>
       <c r="F136" s="3"/>
       <c r="G136" s="3"/>
     </row>
     <row r="137" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A137" s="3" t="s">
+      <c r="A137" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="B137" s="3">
+      <c r="B137" s="11">
         <v>2E-3</v>
       </c>
-      <c r="C137" s="3"/>
-      <c r="D137" s="3" t="s">
+      <c r="C137" s="11"/>
+      <c r="D137" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="E137" s="3">
+      <c r="E137" s="11">
         <v>62509.995138523504</v>
       </c>
       <c r="F137" s="3"/>
       <c r="G137" s="3"/>
     </row>
     <row r="138" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A138" s="3" t="s">
+      <c r="A138" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="B138" s="3">
+      <c r="B138" s="11">
         <v>19</v>
       </c>
-      <c r="C138" s="3"/>
-      <c r="D138" s="3" t="s">
+      <c r="C138" s="11"/>
+      <c r="D138" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="E138" s="3">
+      <c r="E138" s="11">
         <v>11.8848790568995</v>
       </c>
       <c r="F138" s="3"/>
       <c r="G138" s="3"/>
     </row>
     <row r="139" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A139" s="3" t="s">
+      <c r="A139" s="11" t="s">
         <v>65</v>
       </c>
-      <c r="B139" s="3">
+      <c r="B139" s="11">
         <v>0.94</v>
       </c>
-      <c r="C139" s="3"/>
-      <c r="D139" s="3" t="s">
+      <c r="C139" s="11"/>
+      <c r="D139" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="E139" s="3">
+      <c r="E139" s="11">
         <v>11.8848790568995</v>
       </c>
       <c r="F139" s="3"/>
       <c r="G139" s="3"/>
     </row>
     <row r="140" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A140" s="3" t="s">
+      <c r="A140" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="B140" s="3">
+      <c r="B140" s="11">
         <v>28</v>
       </c>
-      <c r="C140" s="3"/>
-      <c r="D140" s="3" t="s">
+      <c r="C140" s="11"/>
+      <c r="D140" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="E140" s="9">
+      <c r="E140" s="12">
         <v>586994.17000000004</v>
       </c>
       <c r="F140" s="3"/>
       <c r="G140" s="3"/>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="D141" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="E141" s="15">
+        <f>(E140/(E136*100))/12500</f>
+        <v>0.55398201474042919</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A142" s="3"/>
+      <c r="B142" s="3"/>
+      <c r="C142" s="3"/>
+      <c r="D142" s="3"/>
+      <c r="E142" s="10"/>
+      <c r="F142" s="3"/>
+      <c r="G142" s="3"/>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A143" s="3"/>
+      <c r="B143" s="3"/>
+      <c r="C143" s="3"/>
+      <c r="D143" s="3"/>
+      <c r="E143" s="3"/>
+      <c r="F143" s="3"/>
+      <c r="G143" s="9"/>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A144" s="3"/>
+      <c r="B144" s="3"/>
+      <c r="C144" s="3"/>
+      <c r="D144" s="9">
+        <f>E140/120</f>
+        <v>4891.6180833333337</v>
+      </c>
+      <c r="E144" s="3"/>
+      <c r="F144" s="3"/>
+      <c r="G144" s="10"/>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A145" s="3"/>
+      <c r="B145" s="3"/>
+      <c r="C145" s="3"/>
+      <c r="D145" s="9">
+        <f>D144/1000</f>
+        <v>4.8916180833333334</v>
+      </c>
+      <c r="E145" s="3"/>
+      <c r="F145" s="3"/>
+      <c r="G145" s="3"/>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A146" s="13"/>
+      <c r="B146" s="13"/>
+      <c r="C146" s="13"/>
+      <c r="D146" s="13"/>
+      <c r="E146" s="13"/>
+      <c r="F146" s="3"/>
+      <c r="G146" s="3"/>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A147" s="13"/>
+      <c r="B147" s="13"/>
+      <c r="C147" s="13"/>
+      <c r="D147" s="13"/>
+      <c r="E147" s="13"/>
+      <c r="F147" s="3"/>
+      <c r="G147" s="3"/>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A148" s="13"/>
+      <c r="B148" s="13"/>
+      <c r="C148" s="13"/>
+      <c r="D148" s="13"/>
+      <c r="E148" s="13"/>
+      <c r="F148" s="3"/>
+      <c r="G148" s="3"/>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A149" s="13"/>
+      <c r="B149" s="13"/>
+      <c r="C149" s="13"/>
+      <c r="D149" s="13"/>
+      <c r="E149" s="13"/>
+      <c r="F149" s="3"/>
+      <c r="G149" s="3"/>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A150" s="13"/>
+      <c r="B150" s="13"/>
+      <c r="C150" s="13"/>
+      <c r="D150" s="13"/>
+      <c r="E150" s="13"/>
+      <c r="F150" s="3"/>
+      <c r="G150" s="3"/>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A151" s="13"/>
+      <c r="B151" s="13"/>
+      <c r="C151" s="13"/>
+      <c r="D151" s="13"/>
+      <c r="E151" s="13"/>
+      <c r="F151" s="3"/>
+      <c r="G151" s="3"/>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A152" s="13"/>
+      <c r="B152" s="13"/>
+      <c r="C152" s="13"/>
+      <c r="D152" s="13"/>
+      <c r="E152" s="13"/>
+      <c r="F152" s="3"/>
+      <c r="G152" s="3"/>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A153" s="13"/>
+      <c r="B153" s="13"/>
+      <c r="C153" s="13"/>
+      <c r="D153" s="13"/>
+      <c r="E153" s="14"/>
+      <c r="F153" s="3"/>
+      <c r="G153" s="3"/>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A154" s="13"/>
+      <c r="B154" s="13"/>
+      <c r="C154" s="13"/>
+      <c r="D154" s="13"/>
+      <c r="E154" s="17"/>
+      <c r="F154" s="3"/>
+      <c r="G154" s="3"/>
     </row>
     <row r="417" spans="2:7" x14ac:dyDescent="0.25">
       <c r="B417" s="3"/>
@@ -7213,7 +7386,8 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -7461,12 +7635,12 @@
       </c>
     </row>
     <row r="16" spans="16:20" x14ac:dyDescent="0.25">
-      <c r="P16" s="15" t="s">
+      <c r="P16" s="16" t="s">
         <v>102</v>
       </c>
-      <c r="Q16" s="15"/>
-      <c r="R16" s="15"/>
-      <c r="S16" s="15"/>
+      <c r="Q16" s="16"/>
+      <c r="R16" s="16"/>
+      <c r="S16" s="16"/>
       <c r="T16" s="4">
         <f>SUM(T2:T15)</f>
         <v>680051.25</v>
